--- a/DocsToDownload/Finanzas.xlsx
+++ b/DocsToDownload/Finanzas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t xml:space="preserve">FECHA</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t xml:space="preserve">2020_08_04_STRATO-DRP86398426.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/12/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.16 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 54.16 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_12_14_STRATO-Ref-107528289062.pdf</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -126,11 +138,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +181,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,10 +195,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,17 +215,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="54.74"/>
@@ -307,7 +310,7 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -337,11 +340,39 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DocsToDownload/Finanzas.xlsx
+++ b/DocsToDownload/Finanzas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t xml:space="preserve">FECHA</t>
   </si>
@@ -107,6 +107,60 @@
   </si>
   <si>
     <t xml:space="preserve">2020_12_14_STRATO-Ref-107528289062.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.16 USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 15.16 USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de servicios de nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_03_30_namecheap-order-72276193.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/04/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.80 USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 28.80 USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de servicios de correo electrónico y DNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_04_17_namecheap-order-73179185.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/04/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.14 USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 25.14 USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de servicios de DNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022_04_12_namecheap-transaction-109986848.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.92 USD + 69.92 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 149.92 USD - 69.92 EUR</t>
   </si>
 </sst>
 </file>
@@ -181,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,6 +250,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -215,16 +273,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.14"/>
@@ -375,6 +433,101 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
